--- a/backend/app/templates/timeStudy_template.xlsx
+++ b/backend/app/templates/timeStudy_template.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F8A206-210B-4AD7-AA98-B3CE39712DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D0A986-0E87-40CC-B0A2-E74D73F0EC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20565" yWindow="1290" windowWidth="19395" windowHeight="11010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="16" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">sheet1!$A$1:$AP$135</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">sheet1!$A$1:$AP$71</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -2026,6 +2026,96 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2075,96 +2165,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2731,7 +2731,7 @@
   </sheetPr>
   <dimension ref="A1:AQ135"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
@@ -2768,122 +2768,122 @@
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
       <c r="D2" s="41"/>
-      <c r="F2" s="81" t="s">
+      <c r="F2" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="82"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="85" t="s">
+      <c r="G2" s="112"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
-      <c r="V2" s="88"/>
-      <c r="W2" s="89"/>
-      <c r="X2" s="116"/>
-      <c r="Y2" s="116"/>
-      <c r="Z2" s="116"/>
-      <c r="AA2" s="116"/>
-      <c r="AB2" s="116"/>
-      <c r="AC2" s="117"/>
-      <c r="AD2" s="118"/>
-      <c r="AE2" s="118"/>
-      <c r="AF2" s="118"/>
-      <c r="AG2" s="118"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="117"/>
+      <c r="T2" s="118"/>
+      <c r="U2" s="118"/>
+      <c r="V2" s="118"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="85"/>
+      <c r="AE2" s="85"/>
+      <c r="AF2" s="85"/>
+      <c r="AG2" s="85"/>
       <c r="AH2" s="8"/>
       <c r="AI2" s="8"/>
     </row>
     <row r="3" spans="1:41" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E3" s="6"/>
-      <c r="F3" s="90" t="s">
+      <c r="F3" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="91"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="92" t="s">
+      <c r="G3" s="121"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="95" t="s">
+      <c r="O3" s="123"/>
+      <c r="P3" s="123"/>
+      <c r="Q3" s="123"/>
+      <c r="R3" s="124"/>
+      <c r="S3" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="96"/>
-      <c r="U3" s="96"/>
-      <c r="V3" s="96"/>
-      <c r="W3" s="97"/>
-      <c r="X3" s="102"/>
-      <c r="Y3" s="102"/>
-      <c r="Z3" s="102"/>
-      <c r="AA3" s="102"/>
-      <c r="AB3" s="102"/>
-      <c r="AC3" s="115"/>
-      <c r="AD3" s="115"/>
-      <c r="AE3" s="115"/>
-      <c r="AF3" s="115"/>
-      <c r="AG3" s="115"/>
+      <c r="T3" s="126"/>
+      <c r="U3" s="126"/>
+      <c r="V3" s="126"/>
+      <c r="W3" s="127"/>
+      <c r="X3" s="81"/>
+      <c r="Y3" s="81"/>
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="81"/>
+      <c r="AC3" s="82"/>
+      <c r="AD3" s="82"/>
+      <c r="AE3" s="82"/>
+      <c r="AF3" s="82"/>
+      <c r="AG3" s="82"/>
       <c r="AH3" s="8"/>
       <c r="AI3" s="8"/>
     </row>
     <row r="4" spans="1:41" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="6"/>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
       <c r="D4" s="42"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="103" t="s">
+      <c r="F4" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="104"/>
-      <c r="H4" s="105" t="s">
+      <c r="G4" s="108"/>
+      <c r="H4" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="119" t="s">
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="120"/>
-      <c r="P4" s="120"/>
-      <c r="Q4" s="120"/>
-      <c r="R4" s="121"/>
-      <c r="S4" s="122" t="s">
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="91"/>
+      <c r="S4" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="123"/>
-      <c r="U4" s="123"/>
-      <c r="V4" s="123"/>
-      <c r="W4" s="124"/>
-      <c r="X4" s="102"/>
-      <c r="Y4" s="102"/>
-      <c r="Z4" s="102"/>
-      <c r="AA4" s="102"/>
-      <c r="AB4" s="102"/>
-      <c r="AC4" s="115"/>
-      <c r="AD4" s="115"/>
-      <c r="AE4" s="115"/>
-      <c r="AF4" s="115"/>
-      <c r="AG4" s="115"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="94"/>
+      <c r="X4" s="81"/>
+      <c r="Y4" s="81"/>
+      <c r="Z4" s="81"/>
+      <c r="AA4" s="81"/>
+      <c r="AB4" s="81"/>
+      <c r="AC4" s="82"/>
+      <c r="AD4" s="82"/>
+      <c r="AE4" s="82"/>
+      <c r="AF4" s="82"/>
+      <c r="AG4" s="82"/>
       <c r="AH4" s="8"/>
       <c r="AI4" s="8"/>
     </row>
@@ -3016,61 +3016,61 @@
       <c r="AI8" s="11"/>
     </row>
     <row r="9" spans="1:41" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="102"/>
-      <c r="B9" s="102"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="107"/>
+      <c r="A9" s="81"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="106"/>
       <c r="E9" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="108" t="s">
+      <c r="F9" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="108" t="s">
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="110"/>
-      <c r="R9" s="108" t="s">
+      <c r="M9" s="103"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="103"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="S9" s="109"/>
-      <c r="T9" s="109"/>
-      <c r="U9" s="109"/>
-      <c r="V9" s="109"/>
-      <c r="W9" s="110"/>
-      <c r="X9" s="108" t="s">
+      <c r="S9" s="103"/>
+      <c r="T9" s="103"/>
+      <c r="U9" s="103"/>
+      <c r="V9" s="103"/>
+      <c r="W9" s="104"/>
+      <c r="X9" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="Y9" s="109"/>
-      <c r="Z9" s="109"/>
-      <c r="AA9" s="109"/>
-      <c r="AB9" s="109"/>
-      <c r="AC9" s="110"/>
-      <c r="AD9" s="108" t="s">
+      <c r="Y9" s="103"/>
+      <c r="Z9" s="103"/>
+      <c r="AA9" s="103"/>
+      <c r="AB9" s="103"/>
+      <c r="AC9" s="104"/>
+      <c r="AD9" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="AE9" s="109"/>
-      <c r="AF9" s="109"/>
-      <c r="AG9" s="109"/>
-      <c r="AH9" s="109"/>
-      <c r="AI9" s="110"/>
-      <c r="AJ9" s="108" t="s">
+      <c r="AE9" s="103"/>
+      <c r="AF9" s="103"/>
+      <c r="AG9" s="103"/>
+      <c r="AH9" s="103"/>
+      <c r="AI9" s="104"/>
+      <c r="AJ9" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="AK9" s="109"/>
-      <c r="AL9" s="109"/>
-      <c r="AM9" s="109"/>
-      <c r="AN9" s="109"/>
-      <c r="AO9" s="110"/>
+      <c r="AK9" s="103"/>
+      <c r="AL9" s="103"/>
+      <c r="AM9" s="103"/>
+      <c r="AN9" s="103"/>
+      <c r="AO9" s="104"/>
     </row>
     <row r="10" spans="1:41" ht="29.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="32" t="s">
@@ -3582,7 +3582,7 @@
       <c r="AO18" s="23"/>
     </row>
     <row r="19" spans="1:41" ht="33.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="111"/>
+      <c r="A19" s="105"/>
       <c r="B19" s="101"/>
       <c r="C19" s="46">
         <v>9</v>
@@ -4363,42 +4363,42 @@
         <v>60</v>
       </c>
       <c r="E35" s="72"/>
-      <c r="F35" s="112"/>
-      <c r="G35" s="113"/>
-      <c r="H35" s="113"/>
-      <c r="I35" s="113"/>
-      <c r="J35" s="113"/>
-      <c r="K35" s="114"/>
-      <c r="L35" s="112"/>
-      <c r="M35" s="113"/>
-      <c r="N35" s="113"/>
-      <c r="O35" s="113"/>
-      <c r="P35" s="113"/>
-      <c r="Q35" s="114"/>
-      <c r="R35" s="112"/>
-      <c r="S35" s="113"/>
-      <c r="T35" s="113"/>
-      <c r="U35" s="113"/>
-      <c r="V35" s="113"/>
-      <c r="W35" s="114"/>
-      <c r="X35" s="112"/>
-      <c r="Y35" s="113"/>
-      <c r="Z35" s="113"/>
-      <c r="AA35" s="113"/>
-      <c r="AB35" s="113"/>
-      <c r="AC35" s="114"/>
-      <c r="AD35" s="112"/>
-      <c r="AE35" s="113"/>
-      <c r="AF35" s="113"/>
-      <c r="AG35" s="113"/>
-      <c r="AH35" s="113"/>
-      <c r="AI35" s="114"/>
-      <c r="AJ35" s="112"/>
-      <c r="AK35" s="113"/>
-      <c r="AL35" s="113"/>
-      <c r="AM35" s="113"/>
-      <c r="AN35" s="113"/>
-      <c r="AO35" s="114"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="96"/>
+      <c r="H35" s="96"/>
+      <c r="I35" s="96"/>
+      <c r="J35" s="96"/>
+      <c r="K35" s="97"/>
+      <c r="L35" s="95"/>
+      <c r="M35" s="96"/>
+      <c r="N35" s="96"/>
+      <c r="O35" s="96"/>
+      <c r="P35" s="96"/>
+      <c r="Q35" s="97"/>
+      <c r="R35" s="95"/>
+      <c r="S35" s="96"/>
+      <c r="T35" s="96"/>
+      <c r="U35" s="96"/>
+      <c r="V35" s="96"/>
+      <c r="W35" s="97"/>
+      <c r="X35" s="95"/>
+      <c r="Y35" s="96"/>
+      <c r="Z35" s="96"/>
+      <c r="AA35" s="96"/>
+      <c r="AB35" s="96"/>
+      <c r="AC35" s="97"/>
+      <c r="AD35" s="95"/>
+      <c r="AE35" s="96"/>
+      <c r="AF35" s="96"/>
+      <c r="AG35" s="96"/>
+      <c r="AH35" s="96"/>
+      <c r="AI35" s="97"/>
+      <c r="AJ35" s="95"/>
+      <c r="AK35" s="96"/>
+      <c r="AL35" s="96"/>
+      <c r="AM35" s="96"/>
+      <c r="AN35" s="96"/>
+      <c r="AO35" s="97"/>
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.45">
       <c r="B36" s="7" t="s">
@@ -4561,61 +4561,61 @@
       <c r="AI42" s="11"/>
     </row>
     <row r="43" spans="1:41" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="102"/>
-      <c r="B43" s="102"/>
-      <c r="C43" s="102"/>
-      <c r="D43" s="107"/>
+      <c r="A43" s="81"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="106"/>
       <c r="E43" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="108" t="s">
+      <c r="F43" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="G43" s="109"/>
-      <c r="H43" s="109"/>
-      <c r="I43" s="109"/>
-      <c r="J43" s="109"/>
-      <c r="K43" s="110"/>
-      <c r="L43" s="108" t="s">
+      <c r="G43" s="103"/>
+      <c r="H43" s="103"/>
+      <c r="I43" s="103"/>
+      <c r="J43" s="103"/>
+      <c r="K43" s="104"/>
+      <c r="L43" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="M43" s="109"/>
-      <c r="N43" s="109"/>
-      <c r="O43" s="109"/>
-      <c r="P43" s="109"/>
-      <c r="Q43" s="110"/>
-      <c r="R43" s="108" t="s">
+      <c r="M43" s="103"/>
+      <c r="N43" s="103"/>
+      <c r="O43" s="103"/>
+      <c r="P43" s="103"/>
+      <c r="Q43" s="104"/>
+      <c r="R43" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="S43" s="109"/>
-      <c r="T43" s="109"/>
-      <c r="U43" s="109"/>
-      <c r="V43" s="109"/>
-      <c r="W43" s="110"/>
-      <c r="X43" s="108" t="s">
+      <c r="S43" s="103"/>
+      <c r="T43" s="103"/>
+      <c r="U43" s="103"/>
+      <c r="V43" s="103"/>
+      <c r="W43" s="104"/>
+      <c r="X43" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="Y43" s="109"/>
-      <c r="Z43" s="109"/>
-      <c r="AA43" s="109"/>
-      <c r="AB43" s="109"/>
-      <c r="AC43" s="110"/>
-      <c r="AD43" s="108" t="s">
+      <c r="Y43" s="103"/>
+      <c r="Z43" s="103"/>
+      <c r="AA43" s="103"/>
+      <c r="AB43" s="103"/>
+      <c r="AC43" s="104"/>
+      <c r="AD43" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="AE43" s="109"/>
-      <c r="AF43" s="109"/>
-      <c r="AG43" s="109"/>
-      <c r="AH43" s="109"/>
-      <c r="AI43" s="110"/>
-      <c r="AJ43" s="108" t="s">
+      <c r="AE43" s="103"/>
+      <c r="AF43" s="103"/>
+      <c r="AG43" s="103"/>
+      <c r="AH43" s="103"/>
+      <c r="AI43" s="104"/>
+      <c r="AJ43" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="AK43" s="109"/>
-      <c r="AL43" s="109"/>
-      <c r="AM43" s="109"/>
-      <c r="AN43" s="109"/>
-      <c r="AO43" s="110"/>
+      <c r="AK43" s="103"/>
+      <c r="AL43" s="103"/>
+      <c r="AM43" s="103"/>
+      <c r="AN43" s="103"/>
+      <c r="AO43" s="104"/>
     </row>
     <row r="44" spans="1:41" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="32" t="s">
@@ -5127,7 +5127,7 @@
       <c r="AO52" s="23"/>
     </row>
     <row r="53" spans="1:41" ht="33.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="111"/>
+      <c r="A53" s="105"/>
       <c r="B53" s="101"/>
       <c r="C53" s="46">
         <v>9</v>
@@ -5910,42 +5910,42 @@
         <v>60</v>
       </c>
       <c r="E69" s="27"/>
-      <c r="F69" s="112"/>
-      <c r="G69" s="113"/>
-      <c r="H69" s="113"/>
-      <c r="I69" s="113"/>
-      <c r="J69" s="113"/>
-      <c r="K69" s="114"/>
-      <c r="L69" s="112"/>
-      <c r="M69" s="113"/>
-      <c r="N69" s="113"/>
-      <c r="O69" s="113"/>
-      <c r="P69" s="113"/>
-      <c r="Q69" s="114"/>
-      <c r="R69" s="112"/>
-      <c r="S69" s="113"/>
-      <c r="T69" s="113"/>
-      <c r="U69" s="113"/>
-      <c r="V69" s="113"/>
-      <c r="W69" s="114"/>
-      <c r="X69" s="112"/>
-      <c r="Y69" s="113"/>
-      <c r="Z69" s="113"/>
-      <c r="AA69" s="113"/>
-      <c r="AB69" s="113"/>
-      <c r="AC69" s="114"/>
-      <c r="AD69" s="112"/>
-      <c r="AE69" s="113"/>
-      <c r="AF69" s="113"/>
-      <c r="AG69" s="113"/>
-      <c r="AH69" s="113"/>
-      <c r="AI69" s="114"/>
-      <c r="AJ69" s="112"/>
-      <c r="AK69" s="113"/>
-      <c r="AL69" s="113"/>
-      <c r="AM69" s="113"/>
-      <c r="AN69" s="113"/>
-      <c r="AO69" s="114"/>
+      <c r="F69" s="95"/>
+      <c r="G69" s="96"/>
+      <c r="H69" s="96"/>
+      <c r="I69" s="96"/>
+      <c r="J69" s="96"/>
+      <c r="K69" s="97"/>
+      <c r="L69" s="95"/>
+      <c r="M69" s="96"/>
+      <c r="N69" s="96"/>
+      <c r="O69" s="96"/>
+      <c r="P69" s="96"/>
+      <c r="Q69" s="97"/>
+      <c r="R69" s="95"/>
+      <c r="S69" s="96"/>
+      <c r="T69" s="96"/>
+      <c r="U69" s="96"/>
+      <c r="V69" s="96"/>
+      <c r="W69" s="97"/>
+      <c r="X69" s="95"/>
+      <c r="Y69" s="96"/>
+      <c r="Z69" s="96"/>
+      <c r="AA69" s="96"/>
+      <c r="AB69" s="96"/>
+      <c r="AC69" s="97"/>
+      <c r="AD69" s="95"/>
+      <c r="AE69" s="96"/>
+      <c r="AF69" s="96"/>
+      <c r="AG69" s="96"/>
+      <c r="AH69" s="96"/>
+      <c r="AI69" s="97"/>
+      <c r="AJ69" s="95"/>
+      <c r="AK69" s="96"/>
+      <c r="AL69" s="96"/>
+      <c r="AM69" s="96"/>
+      <c r="AN69" s="96"/>
+      <c r="AO69" s="97"/>
       <c r="AP69" s="28"/>
     </row>
     <row r="70" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -6263,23 +6263,27 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="AC4:AG4"/>
-    <mergeCell ref="X2:AB2"/>
-    <mergeCell ref="AC2:AG2"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="X3:AB3"/>
-    <mergeCell ref="AC3:AG3"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="S4:W4"/>
-    <mergeCell ref="AD69:AI69"/>
-    <mergeCell ref="AJ69:AO69"/>
-    <mergeCell ref="A54:A65"/>
-    <mergeCell ref="B57:B65"/>
-    <mergeCell ref="F69:K69"/>
-    <mergeCell ref="L69:Q69"/>
-    <mergeCell ref="R69:W69"/>
-    <mergeCell ref="X69:AC69"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="S3:W3"/>
+    <mergeCell ref="A20:A31"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="F9:K9"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="X9:AC9"/>
+    <mergeCell ref="AD9:AI9"/>
+    <mergeCell ref="AJ9:AO9"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="R9:W9"/>
     <mergeCell ref="AD43:AI43"/>
     <mergeCell ref="AJ43:AO43"/>
     <mergeCell ref="A45:A53"/>
@@ -6295,27 +6299,23 @@
     <mergeCell ref="L43:Q43"/>
     <mergeCell ref="R43:W43"/>
     <mergeCell ref="X43:AC43"/>
-    <mergeCell ref="X9:AC9"/>
-    <mergeCell ref="AD9:AI9"/>
-    <mergeCell ref="AJ9:AO9"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="R9:W9"/>
-    <mergeCell ref="A20:A31"/>
-    <mergeCell ref="B23:B31"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="F9:K9"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="S3:W3"/>
+    <mergeCell ref="AD69:AI69"/>
+    <mergeCell ref="AJ69:AO69"/>
+    <mergeCell ref="A54:A65"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="F69:K69"/>
+    <mergeCell ref="L69:Q69"/>
+    <mergeCell ref="R69:W69"/>
+    <mergeCell ref="X69:AC69"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="AC4:AG4"/>
+    <mergeCell ref="X2:AB2"/>
+    <mergeCell ref="AC2:AG2"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="X3:AB3"/>
+    <mergeCell ref="AC3:AG3"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="S4:W4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="C11:D35 F35 L35 R35 X35 AD35">
@@ -6359,6 +6359,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100A2D6370E7DFAE047846489BCB8F68A45" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="bf6e124bb51ddeaac096e7702ab2dafc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c6b2ab0-c394-4f58-bb38-36696b3c617f" xmlns:ns3="0e3bd4d2-f0df-4a8e-97cc-ff0bce4c20c5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="56b14c9b8be566a6c9311eb0c239f164" ns2:_="" ns3:_="">
     <xsd:import namespace="9c6b2ab0-c394-4f58-bb38-36696b3c617f"/>
@@ -6535,15 +6544,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -6551,6 +6551,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CB7C0FB-06C6-4CBC-99ED-329404F96810}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D88B54C-602B-430B-B708-3E52251C9A51}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6565,14 +6573,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CB7C0FB-06C6-4CBC-99ED-329404F96810}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
